--- a/accounting.xlsx
+++ b/accounting.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
   <si>
     <t>花费项目</t>
   </si>
@@ -47,6 +47,9 @@
   </si>
   <si>
     <t>2017.07.19</t>
+  </si>
+  <si>
+    <t>午饭</t>
   </si>
 </sst>
 </file>
@@ -307,13 +310,6 @@
       </border>
     </dxf>
     <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -324,6 +320,13 @@
         <top style="thin">
           <color indexed="64"/>
         </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -361,7 +364,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:F1048576" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="7" tableBorderDxfId="8" totalsRowBorderDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:F1048576" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
   <autoFilter ref="A1:F1048576"/>
   <tableColumns count="6">
     <tableColumn id="1" name="花费项目" dataDxfId="5"/>
@@ -662,10 +665,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -725,6 +728,17 @@
         <v>10</v>
       </c>
     </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="5">
+        <v>21.5</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">

--- a/accounting.xlsx
+++ b/accounting.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="2017.07" sheetId="1" r:id="rId1"/>
+    <sheet name="investment" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="26">
   <si>
     <t>花费项目</t>
   </si>
@@ -50,13 +51,55 @@
   </si>
   <si>
     <t>午饭</t>
+  </si>
+  <si>
+    <t>晚饭</t>
+  </si>
+  <si>
+    <t>2017.07.20</t>
+  </si>
+  <si>
+    <t>加油</t>
+  </si>
+  <si>
+    <t>浦发银行账户</t>
+  </si>
+  <si>
+    <t>资金归属人</t>
+  </si>
+  <si>
+    <t>买入时金额</t>
+  </si>
+  <si>
+    <t>卖出时金额</t>
+  </si>
+  <si>
+    <t>陈恩楚</t>
+  </si>
+  <si>
+    <t>投资项目</t>
+  </si>
+  <si>
+    <t>收益</t>
+  </si>
+  <si>
+    <t>投资开放式基金519620</t>
+  </si>
+  <si>
+    <t>国债逆回购七天期</t>
+  </si>
+  <si>
+    <t>郭丽环&amp;陈瑞祥</t>
+  </si>
+  <si>
+    <t>郭丽环占100000块</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -64,16 +107,39 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -157,11 +223,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -169,8 +255,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="2"/>
+    <xf numFmtId="11" fontId="1" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="2" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Heading 1" xfId="1" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="2" builtinId="17"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="10">
@@ -665,13 +758,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="10.88671875" style="4" customWidth="1"/>
     <col min="2" max="3" width="10.88671875" style="5" customWidth="1"/>
@@ -680,7 +773,7 @@
     <col min="6" max="6" width="10.109375" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -700,7 +793,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
@@ -717,7 +810,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6">
       <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
@@ -728,7 +821,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6">
       <c r="A4" s="4" t="s">
         <v>11</v>
       </c>
@@ -737,6 +830,50 @@
       </c>
       <c r="F4" s="6" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="5">
+        <v>54</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="5">
+        <v>15</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="5">
+        <v>18.7</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="5">
+        <v>150</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -745,4 +882,78 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" thickTop="1" thickBottom="1"/>
+  <cols>
+    <col min="1" max="1" width="18.109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="18" thickBot="1">
+      <c r="A1" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" thickTop="1" thickBot="1">
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2">
+        <v>12784</v>
+      </c>
+      <c r="E2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" thickTop="1" thickBot="1">
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3">
+        <v>128898.91</v>
+      </c>
+      <c r="E3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:A1048576"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>